--- a/milon_zachar_nekeva.xlsx
+++ b/milon_zachar_nekeva.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\benezion\BOT\py\hamara\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\benezion\BOT\py\hamaraN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA12207A-ED9C-4C27-8FDF-F3812F8A8BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B21B260-799A-42FF-ABF3-E0876B6A0E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" xr2:uid="{A572472A-8B53-4608-9946-F9BE09DD99F5}"/>
+    <workbookView xWindow="2830" yWindow="1725" windowWidth="14400" windowHeight="8190" xr2:uid="{A572472A-8B53-4608-9946-F9BE09DD99F5}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3372" uniqueCount="2509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3374" uniqueCount="2511">
   <si>
     <t>מקור</t>
   </si>
@@ -7570,6 +7570,12 @@
   </si>
   <si>
     <t>מִבְצָע</t>
+  </si>
+  <si>
+    <t>מדי</t>
+  </si>
+  <si>
+    <t>מִידֵי</t>
   </si>
 </sst>
 </file>
@@ -8553,8 +8559,8 @@
   <dimension ref="A1:G2917"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A761" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B775" sqref="B775"/>
+      <pane ySplit="1" topLeftCell="A773" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B776" sqref="B776"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
@@ -18753,8 +18759,12 @@
       <c r="G775" s="2"/>
     </row>
     <row r="776" spans="1:7" x14ac:dyDescent="0.65">
-      <c r="A776" s="10"/>
-      <c r="B776" s="15"/>
+      <c r="A776" s="10" t="s">
+        <v>2509</v>
+      </c>
+      <c r="B776" s="15" t="s">
+        <v>2510</v>
+      </c>
       <c r="C776" s="3"/>
       <c r="D776" s="3"/>
       <c r="E776" s="3"/>

--- a/milon_zachar_nekeva.xlsx
+++ b/milon_zachar_nekeva.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\benezion\BOT\py\hamaraN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B21B260-799A-42FF-ABF3-E0876B6A0E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE04EB5-EB04-4E21-A4A0-D4143ECC88F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2830" yWindow="1725" windowWidth="14400" windowHeight="8190" xr2:uid="{A572472A-8B53-4608-9946-F9BE09DD99F5}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" xr2:uid="{A572472A-8B53-4608-9946-F9BE09DD99F5}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3374" uniqueCount="2511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3378" uniqueCount="2515">
   <si>
     <t>מקור</t>
   </si>
@@ -7576,6 +7576,18 @@
   </si>
   <si>
     <t>מִידֵי</t>
+  </si>
+  <si>
+    <t>חיוב</t>
+  </si>
+  <si>
+    <t>חִיּוּב</t>
+  </si>
+  <si>
+    <t>הכתובת</t>
+  </si>
+  <si>
+    <t>הַכְּתֹבֶת</t>
   </si>
 </sst>
 </file>
@@ -8559,8 +8571,8 @@
   <dimension ref="A1:G2917"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A773" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B776" sqref="B776"/>
+      <pane ySplit="1" topLeftCell="A767" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B778" sqref="B778"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
@@ -18772,10 +18784,20 @@
       <c r="G776" s="3"/>
     </row>
     <row r="777" spans="1:7" x14ac:dyDescent="0.65">
-      <c r="A777"/>
+      <c r="A777" t="s">
+        <v>2511</v>
+      </c>
+      <c r="B777" t="s">
+        <v>2512</v>
+      </c>
     </row>
     <row r="778" spans="1:7" x14ac:dyDescent="0.65">
-      <c r="A778"/>
+      <c r="A778" t="s">
+        <v>2513</v>
+      </c>
+      <c r="B778" t="s">
+        <v>2514</v>
+      </c>
     </row>
     <row r="779" spans="1:7" x14ac:dyDescent="0.65">
       <c r="A779"/>
